--- a/Data/Masterfile_Hobo_deployment.xlsx
+++ b/Data/Masterfile_Hobo_deployment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristakraskura/Desktop/BOX/UCSB/Research/Carpinteria marsh fish /Data_Environmental/data - HOBO/documentation of locations and downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristakraskura/Github_repositories/KK_etal_gobies_tempVar_tempTol/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C961BE77-919C-E04F-AE74-07E6B4096278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF7D5EB-2C83-AC44-8D50-00CB90424FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1620" windowWidth="23420" windowHeight="16320" xr2:uid="{10C70F3B-D3E6-0D44-A2F3-D8092AD6D5CC}"/>
+    <workbookView xWindow="3420" yWindow="1620" windowWidth="23420" windowHeight="16320" xr2:uid="{10C70F3B-D3E6-0D44-A2F3-D8092AD6D5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Carp_for_JEB" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="114">
   <si>
     <t>Team</t>
   </si>
@@ -357,6 +357,27 @@
   </si>
   <si>
     <t>on the discharge area matching site for all CT tests. - confident that this is always submerged. By the culvert</t>
+  </si>
+  <si>
+    <t>#3EC70B</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>#A149FA</t>
+  </si>
+  <si>
+    <t>#3B44F6</t>
+  </si>
+  <si>
+    <t>#00CAFF</t>
+  </si>
+  <si>
+    <t>Color code</t>
+  </si>
+  <si>
+    <t>no, but have data (need to finetune coordinates)</t>
   </si>
 </sst>
 </file>
@@ -366,9 +387,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -546,6 +567,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -692,7 +720,7 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -860,12 +888,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent4" xfId="4" builtinId="43"/>
@@ -892,13 +924,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>619560</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>162220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>619920</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>162580</xdr:rowOff>
@@ -957,13 +989,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>650160</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>650520</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>3600</xdr:rowOff>
@@ -1022,13 +1054,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>649080</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>649440</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
@@ -1087,7 +1119,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>649080</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1147,7 +1179,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>650160</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1161,366 +1193,6 @@
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9FD4E65-C94B-2F49-B8A2-C4366CE19332}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="650160" y="2965840"/>
-            <a:ext cx="360" cy="3600"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="7" name="Ink 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3EFC147-2748-464A-AC5A-036F196B42CF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="645840" y="2758320"/>
-              <a:ext cx="9000" cy="12240"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619560</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="16" name="Ink 15">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5050A2B-D3FA-5244-8C50-10849D49BC16}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="619560" y="5178720"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Ink 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAE1EEF-076D-AC4D-8E4E-2FBC9728D990}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="615240" y="4564800"/>
-              <a:ext cx="9000" cy="9000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619560</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="17" name="Ink 16">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44722F14-C259-D145-ACD2-E47A0FD516C4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="619560" y="5178720"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Ink 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAE1EEF-076D-AC4D-8E4E-2FBC9728D990}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="615240" y="4564800"/>
-              <a:ext cx="9000" cy="9000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619560</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="18" name="Ink 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D1EB67-D7AA-D142-B40B-DB6307F6D081}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="619560" y="5178720"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Ink 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAE1EEF-076D-AC4D-8E4E-2FBC9728D990}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="615240" y="4564800"/>
-              <a:ext cx="9000" cy="9000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619560</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="19" name="Ink 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C968A1-D72A-614B-BE29-358CA772D384}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="619560" y="5178720"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Ink 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAE1EEF-076D-AC4D-8E4E-2FBC9728D990}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="615240" y="4564800"/>
-              <a:ext cx="9000" cy="9000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>650160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="3600"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="20" name="Ink 19">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AD745B-E678-AC4A-BC03-8C846571C8F5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="650160" y="2965840"/>
-            <a:ext cx="360" cy="3600"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="7" name="Ink 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3EFC147-2748-464A-AC5A-036F196B42CF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="645840" y="2758320"/>
-              <a:ext cx="9000" cy="12240"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>650160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="3600"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="21" name="Ink 20">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D91371-84B1-B64B-BF3A-774E917D5A56}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1569,18 +1241,18 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>619560</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>162220</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="22" name="Ink 21">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A3CEDD-1087-5B46-8618-AE0B31114AA8}"/>
+            <xdr14:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5050A2B-D3FA-5244-8C50-10849D49BC16}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1628,6 +1300,366 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>619560</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="Ink 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44722F14-C259-D145-ACD2-E47A0FD516C4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="619560" y="5178720"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAE1EEF-076D-AC4D-8E4E-2FBC9728D990}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="615240" y="4564800"/>
+              <a:ext cx="9000" cy="9000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619560</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="18" name="Ink 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D1EB67-D7AA-D142-B40B-DB6307F6D081}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="619560" y="5178720"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAE1EEF-076D-AC4D-8E4E-2FBC9728D990}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="615240" y="4564800"/>
+              <a:ext cx="9000" cy="9000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619560</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="Ink 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C968A1-D72A-614B-BE29-358CA772D384}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="619560" y="5178720"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAE1EEF-076D-AC4D-8E4E-2FBC9728D990}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="615240" y="4564800"/>
+              <a:ext cx="9000" cy="9000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>650160</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="3600"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AD745B-E678-AC4A-BC03-8C846571C8F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="650160" y="2965840"/>
+            <a:ext cx="360" cy="3600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3EFC147-2748-464A-AC5A-036F196B42CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="645840" y="2758320"/>
+              <a:ext cx="9000" cy="12240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>650160</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="3600"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="21" name="Ink 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D91371-84B1-B64B-BF3A-774E917D5A56}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="650160" y="2965840"/>
+            <a:ext cx="360" cy="3600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3EFC147-2748-464A-AC5A-036F196B42CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="645840" y="2758320"/>
+              <a:ext cx="9000" cy="12240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>162220</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="22" name="Ink 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A3CEDD-1087-5B46-8618-AE0B31114AA8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="619560" y="5178720"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAE1EEF-076D-AC4D-8E4E-2FBC9728D990}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="615240" y="4564800"/>
+              <a:ext cx="9000" cy="9000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>649080</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1687,7 +1719,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>649080</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4403,224 +4435,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6438048-EC0E-F945-A756-7A75ACAC6D06}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="206.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="25"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="206.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="96">
+      <c r="C2" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="94">
         <v>43725</v>
       </c>
-      <c r="D2" s="96">
+      <c r="E2" s="94">
         <v>43863</v>
       </c>
-      <c r="E2" s="95">
+      <c r="F2" s="19">
         <v>34.399093000000001</v>
       </c>
-      <c r="F2" s="95">
+      <c r="G2" s="19">
         <v>-119.535466</v>
       </c>
-      <c r="G2" s="24">
+      <c r="H2" s="24">
         <v>10</v>
       </c>
-      <c r="H2" s="13">
+      <c r="I2" s="13">
         <v>109.8</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="96">
+      <c r="C3" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="94">
         <v>43725</v>
       </c>
-      <c r="D3" s="96">
+      <c r="E3" s="94">
         <v>44383</v>
       </c>
-      <c r="E3" s="19">
+      <c r="F3" s="19">
         <v>34.399807000000003</v>
       </c>
-      <c r="F3" s="19">
+      <c r="G3" s="19">
         <v>-119.53581200000001</v>
       </c>
-      <c r="G3" s="24">
+      <c r="H3" s="24">
         <v>10</v>
       </c>
-      <c r="H3" s="13">
+      <c r="I3" s="13">
         <v>117.7</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="96">
+      <c r="C4" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="94">
         <v>43725</v>
       </c>
-      <c r="D4" s="96">
+      <c r="E4" s="94">
         <v>44465</v>
       </c>
-      <c r="E4" s="19">
+      <c r="F4" s="19">
         <v>34.402079000000001</v>
       </c>
-      <c r="F4" s="19">
+      <c r="G4" s="19">
         <v>-119.53442099999999</v>
       </c>
-      <c r="G4" s="24">
+      <c r="H4" s="24">
         <v>10</v>
       </c>
-      <c r="H4" s="13">
+      <c r="I4" s="13">
         <v>109.8</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="K4" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="96">
+      <c r="C5" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="94">
         <v>43734</v>
       </c>
-      <c r="D5" s="96">
+      <c r="E5" s="94">
         <v>44382</v>
       </c>
-      <c r="E5" s="19">
+      <c r="F5" s="19">
         <v>34.401865999999998</v>
       </c>
-      <c r="F5" s="19">
+      <c r="G5" s="19">
         <v>-119.534932</v>
       </c>
-      <c r="G5" s="24">
+      <c r="H5" s="24">
         <v>10</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="96">
+      <c r="C6" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="94">
         <v>44383</v>
       </c>
-      <c r="D6" s="96">
+      <c r="E6" s="94">
         <v>44916</v>
       </c>
-      <c r="E6" s="19">
+      <c r="F6" s="19">
         <v>34.400289999999998</v>
       </c>
-      <c r="F6" s="19">
+      <c r="G6" s="19">
         <v>-119.53507</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="H6" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="I6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="K6" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4633,7 +4684,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4667,24 +4718,24 @@
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="38"/>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="93"/>
+      <c r="J1" s="97"/>
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
-      <c r="M1" s="93" t="s">
+      <c r="M1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93" t="s">
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
       <c r="U1" s="36"/>
       <c r="V1" s="36"/>
     </row>
@@ -5518,9 +5569,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" s="28" customFormat="1" ht="43" x14ac:dyDescent="0.2">
       <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
+      <c r="B20" s="96" t="s">
+        <v>113</v>
+      </c>
       <c r="C20" s="59" t="s">
         <v>62</v>
       </c>
